--- a/stock_predictor_ai/data/cleaned/LYB.xlsx
+++ b/stock_predictor_ai/data/cleaned/LYB.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3818"/>
+  <dimension ref="A1:F3819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76809,6 +76809,26 @@
         <v>318299</v>
       </c>
     </row>
+    <row r="3819">
+      <c r="A3819" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3819" t="n">
+        <v>64.90499877929688</v>
+      </c>
+      <c r="C3819" t="n">
+        <v>66.13999938964844</v>
+      </c>
+      <c r="D3819" t="n">
+        <v>63.91999816894531</v>
+      </c>
+      <c r="E3819" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="F3819" t="n">
+        <v>449733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/LYB.xlsx
+++ b/stock_predictor_ai/data/cleaned/LYB.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3819"/>
+  <dimension ref="A1:F3820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76829,6 +76829,26 @@
         <v>449733</v>
       </c>
     </row>
+    <row r="3820">
+      <c r="A3820" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3820" t="n">
+        <v>62.43999862670898</v>
+      </c>
+      <c r="C3820" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3820" t="n">
+        <v>62.36999893188477</v>
+      </c>
+      <c r="E3820" t="n">
+        <v>63.54999923706055</v>
+      </c>
+      <c r="F3820" t="n">
+        <v>2086700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/LYB.xlsx
+++ b/stock_predictor_ai/data/cleaned/LYB.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3820"/>
+  <dimension ref="A1:F3821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76849,6 +76849,26 @@
         <v>2086700</v>
       </c>
     </row>
+    <row r="3821">
+      <c r="A3821" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3821" t="n">
+        <v>63.65000152587891</v>
+      </c>
+      <c r="C3821" t="n">
+        <v>64.12999725341797</v>
+      </c>
+      <c r="D3821" t="n">
+        <v>63.31999969482422</v>
+      </c>
+      <c r="E3821" t="n">
+        <v>63.77000045776367</v>
+      </c>
+      <c r="F3821" t="n">
+        <v>916403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/LYB.xlsx
+++ b/stock_predictor_ai/data/cleaned/LYB.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3821"/>
+  <dimension ref="A1:F3822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76869,6 +76869,26 @@
         <v>916403</v>
       </c>
     </row>
+    <row r="3822">
+      <c r="A3822" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3822" t="n">
+        <v>55.53499984741211</v>
+      </c>
+      <c r="C3822" t="n">
+        <v>56.02999877929688</v>
+      </c>
+      <c r="D3822" t="n">
+        <v>54.63000106811523</v>
+      </c>
+      <c r="E3822" t="n">
+        <v>55.58499908447266</v>
+      </c>
+      <c r="F3822" t="n">
+        <v>2551859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/LYB.xlsx
+++ b/stock_predictor_ai/data/cleaned/LYB.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3822"/>
+  <dimension ref="A1:F3817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76789,106 +76791,6 @@
         <v>4104100</v>
       </c>
     </row>
-    <row r="3818">
-      <c r="A3818" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3818" t="n">
-        <v>62.02999877929688</v>
-      </c>
-      <c r="C3818" t="n">
-        <v>62.77740097045898</v>
-      </c>
-      <c r="D3818" t="n">
-        <v>62</v>
-      </c>
-      <c r="E3818" t="n">
-        <v>62.58000183105469</v>
-      </c>
-      <c r="F3818" t="n">
-        <v>318299</v>
-      </c>
-    </row>
-    <row r="3819">
-      <c r="A3819" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3819" t="n">
-        <v>64.90499877929688</v>
-      </c>
-      <c r="C3819" t="n">
-        <v>66.13999938964844</v>
-      </c>
-      <c r="D3819" t="n">
-        <v>63.91999816894531</v>
-      </c>
-      <c r="E3819" t="n">
-        <v>64.25</v>
-      </c>
-      <c r="F3819" t="n">
-        <v>449733</v>
-      </c>
-    </row>
-    <row r="3820">
-      <c r="A3820" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3820" t="n">
-        <v>62.43999862670898</v>
-      </c>
-      <c r="C3820" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3820" t="n">
-        <v>62.36999893188477</v>
-      </c>
-      <c r="E3820" t="n">
-        <v>63.54999923706055</v>
-      </c>
-      <c r="F3820" t="n">
-        <v>2086700</v>
-      </c>
-    </row>
-    <row r="3821">
-      <c r="A3821" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3821" t="n">
-        <v>63.65000152587891</v>
-      </c>
-      <c r="C3821" t="n">
-        <v>64.12999725341797</v>
-      </c>
-      <c r="D3821" t="n">
-        <v>63.31999969482422</v>
-      </c>
-      <c r="E3821" t="n">
-        <v>63.77000045776367</v>
-      </c>
-      <c r="F3821" t="n">
-        <v>916403</v>
-      </c>
-    </row>
-    <row r="3822">
-      <c r="A3822" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3822" t="n">
-        <v>55.53499984741211</v>
-      </c>
-      <c r="C3822" t="n">
-        <v>56.02999877929688</v>
-      </c>
-      <c r="D3822" t="n">
-        <v>54.63000106811523</v>
-      </c>
-      <c r="E3822" t="n">
-        <v>55.58499908447266</v>
-      </c>
-      <c r="F3822" t="n">
-        <v>2551859</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
